--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,816 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Foggia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pergolettese</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Giana Erminio</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X6" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X7" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="N4" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="R4" t="n">
         <v>1.11</v>
       </c>
       <c r="S4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,16 +1018,16 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
         <v>2.36</v>
@@ -1087,7 +1087,7 @@
         <v>2.98</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1129,16 +1129,16 @@
         <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
@@ -1150,22 +1150,22 @@
         <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
         <v>80</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,25 +1210,25 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>2.7</v>
@@ -1240,7 +1240,7 @@
         <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
@@ -1258,49 +1258,49 @@
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
         <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>100</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>70</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
         <v>1.49</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
@@ -1393,49 +1393,49 @@
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
         <v>100</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -940,16 +940,16 @@
         <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.82</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.78</v>
       </c>
       <c r="K4" t="n">
         <v>2.94</v>
@@ -967,7 +967,7 @@
         <v>1.91</v>
       </c>
       <c r="P4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
         <v>3.85</v>
@@ -979,7 +979,7 @@
         <v>8.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="U4" t="n">
         <v>1.46</v>
@@ -994,10 +994,10 @@
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1366,16 +1366,16 @@
         <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
@@ -1417,7 +1417,7 @@
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,7 +961,7 @@
         <v>1.21</v>
       </c>
       <c r="N4" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.91</v>
@@ -976,19 +976,19 @@
         <v>1.11</v>
       </c>
       <c r="S4" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T4" t="n">
         <v>2.68</v>
       </c>
       <c r="U4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>5.7</v>
@@ -1027,7 +1027,7 @@
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>2.36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
@@ -1087,7 +1087,7 @@
         <v>2.98</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1129,7 +1129,7 @@
         <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1216,16 +1216,16 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1249,10 +1249,10 @@
         <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
@@ -1261,28 +1261,28 @@
         <v>1.87</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>980</v>
@@ -1294,7 +1294,7 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1303,13 +1303,13 @@
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
@@ -1384,13 +1384,13 @@
         <v>5.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
         <v>1.69</v>
@@ -1399,16 +1399,16 @@
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.94</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -808,19 +808,19 @@
         <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
         <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
         <v>1.43</v>
@@ -943,31 +943,31 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
         <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
         <v>3.85</v>
@@ -979,70 +979,70 @@
         <v>9.800000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="U4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
         <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
         <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1249,7 +1249,7 @@
         <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1354,7 +1354,7 @@
         <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
@@ -1375,7 +1375,7 @@
         <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
@@ -1384,7 +1384,7 @@
         <v>5.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
         <v>1.65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -694,7 +694,7 @@
         <v>2.54</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
         <v>1.52</v>
@@ -709,10 +709,10 @@
         <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
         <v>1.64</v>
@@ -940,10 +940,10 @@
         <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I4" t="n">
         <v>2.94</v>
@@ -952,7 +952,7 @@
         <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,19 +970,19 @@
         <v>1.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="R4" t="n">
         <v>1.11</v>
       </c>
       <c r="S4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V4" t="n">
         <v>1.52</v>
@@ -991,7 +991,7 @@
         <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>7</v>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>70</v>
@@ -1021,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>150</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
         <v>2.36</v>
@@ -1084,10 +1084,10 @@
         <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,7 +1102,7 @@
         <v>1.55</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
         <v>2.38</v>
@@ -1117,19 +1117,19 @@
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
         <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1138,13 +1138,13 @@
         <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>90</v>
@@ -1153,7 +1153,7 @@
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
         <v>3.35</v>
@@ -1231,22 +1231,22 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
@@ -1258,7 +1258,7 @@
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1267,7 +1267,7 @@
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1294,7 +1294,7 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.02</v>
@@ -1390,64 +1390,64 @@
         <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
       </c>
       <c r="AL7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO7" t="n">
         <v>100</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -793,67 +793,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>1.35</v>
+        <v>2.58</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G4" t="n">
         <v>3.3</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="K4" t="n">
-        <v>2.92</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.2</v>
-      </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>8.199999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.11</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>2.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="n">
         <v>130</v>
       </c>
-      <c r="AB5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1198,97 +1198,97 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
         <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1303,13 +1303,13 @@
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1328,125 +1328,260 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>CA Platense</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Gimnasia La Plata</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.48</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>1.57</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.72</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R8" t="n">
         <v>1.17</v>
       </c>
-      <c r="S7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="S8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.39</v>
       </c>
-      <c r="W7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="W8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X8" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y8" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z8" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA8" t="n">
         <v>85</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB8" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC8" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD8" t="n">
         <v>17</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE8" t="n">
         <v>65</v>
       </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AF8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH8" t="n">
         <v>27</v>
       </c>
-      <c r="AI7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL8" t="n">
         <v>75</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM8" t="n">
         <v>240</v>
       </c>
-      <c r="AN7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AN8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO8" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>FK Vrsac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Macva Sabac</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.42</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>FK Kabel</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.58</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.34</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K4" t="n">
-        <v>980</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.94</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.66</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>1.38</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="O7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.52</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1463,126 +1463,396 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
         <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
         <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
       </c>
       <c r="AL8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
         <v>75</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AB10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="n">
         <v>240</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN10" t="n">
         <v>44</v>
       </c>
-      <c r="AO8" t="n">
-        <v>100</v>
+      <c r="AO10" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.52</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="U4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="AN4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
         <v>2.94</v>
@@ -1096,7 +1096,7 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>
@@ -1108,7 +1108,7 @@
         <v>2.42</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
         <v>4.5</v>
@@ -1120,7 +1120,7 @@
         <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W5" t="n">
         <v>1.28</v>
@@ -1225,7 +1225,7 @@
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1345,16 +1345,16 @@
         <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K7" t="n">
         <v>2.84</v>
@@ -1369,10 +1369,10 @@
         <v>2.14</v>
       </c>
       <c r="O7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q7" t="n">
         <v>3.6</v>
@@ -1390,7 +1390,7 @@
         <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
         <v>1.41</v>
@@ -1399,19 +1399,19 @@
         <v>5.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA7" t="n">
         <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
@@ -1423,13 +1423,13 @@
         <v>19.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
         <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
         <v>80</v>
@@ -1444,7 +1444,7 @@
         <v>370</v>
       </c>
       <c r="AN7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
         <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
         <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P8" t="n">
         <v>1.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T8" t="n">
         <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1531,7 +1531,7 @@
         <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>5.1</v>
@@ -1627,7 +1627,7 @@
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.46</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
         <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
@@ -1771,31 +1771,31 @@
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S10" t="n">
         <v>6.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W10" t="n">
         <v>1.66</v>
@@ -1804,22 +1804,22 @@
         <v>8.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
         <v>7.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>65</v>
@@ -1828,19 +1828,19 @@
         <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -673,7 +673,7 @@
         <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
@@ -682,7 +682,7 @@
         <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -817,10 +817,10 @@
         <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
         <v>1.16</v>
@@ -979,34 +979,34 @@
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1015,10 +1015,10 @@
         <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
         <v>44</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1090,7 @@
         <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>5.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
         <v>2.72</v>
       </c>
       <c r="K7" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,7 +1369,7 @@
         <v>2.14</v>
       </c>
       <c r="O7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="P7" t="n">
         <v>1.35</v>
@@ -1378,7 +1378,7 @@
         <v>3.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
         <v>8.800000000000001</v>
@@ -1387,10 +1387,10 @@
         <v>2.64</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
         <v>1.41</v>
@@ -1399,13 +1399,13 @@
         <v>5.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
         <v>15.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
         <v>7.8</v>
@@ -1420,10 +1420,10 @@
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>36</v>
@@ -1444,7 +1444,7 @@
         <v>370</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.59</v>
@@ -1525,10 +1525,10 @@
         <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1543,10 +1543,10 @@
         <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -1627,10 +1627,10 @@
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -1651,7 +1651,7 @@
         <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
         <v>2.12</v>
@@ -1663,7 +1663,7 @@
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1672,7 +1672,7 @@
         <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,19 +1750,19 @@
         <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,40 +1771,40 @@
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
         <v>2.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S10" t="n">
         <v>6.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>1.39</v>
       </c>
       <c r="W10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
         <v>22</v>
@@ -1837,10 +1837,10 @@
         <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
@@ -1852,7 +1852,7 @@
         <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="G2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.84</v>
@@ -688,40 +688,40 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>2.52</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
         <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -808,13 +808,13 @@
         <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
         <v>3.6</v>
@@ -838,10 +838,10 @@
         <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.98</v>
@@ -850,13 +850,13 @@
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
@@ -877,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF3" t="n">
         <v>13.5</v>
@@ -889,7 +889,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ3" t="n">
         <v>32</v>
@@ -898,13 +898,13 @@
         <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R4" t="n">
         <v>1.16</v>
@@ -982,58 +982,58 @@
         <v>2.42</v>
       </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM4" t="n">
         <v>440</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,34 +1096,34 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,34 +1210,34 @@
         <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
         <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
         <v>2.78</v>
@@ -1246,25 +1246,25 @@
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.94</v>
-      </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL7" t="n">
         <v>60</v>
       </c>
-      <c r="AF7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AM7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN7" t="n">
         <v>36</v>
       </c>
-      <c r="AI7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AO7" t="n">
         <v>75</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,118 +1468,118 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>2.92</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="L8" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="N8" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="O8" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="P8" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="S8" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN8" t="n">
         <v>120</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>980</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1603,70 +1603,70 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T9" t="n">
         <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1678,16 +1678,16 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
         <v>980</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1708,13 +1708,13 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1733,108 +1733,108 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="X10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1843,15 +1843,150 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>75</v>
       </c>
-      <c r="AM10" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN11" t="n">
         <v>44</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO11" t="n">
         <v>90</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.43</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
         <v>17.5</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>5.1</v>
@@ -820,43 +820,43 @@
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -880,7 +880,7 @@
         <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
@@ -892,7 +892,7 @@
         <v>250</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
         <v>32</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -955,13 +955,13 @@
         <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O4" t="n">
         <v>1.6</v>
@@ -976,7 +976,7 @@
         <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T4" t="n">
         <v>2.42</v>
@@ -988,22 +988,22 @@
         <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1012,10 +1012,10 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>220</v>
       </c>
       <c r="AK4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="n">
         <v>200</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="J5" t="n">
         <v>2.84</v>
@@ -1099,7 +1099,7 @@
         <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>1.53</v>
@@ -1108,10 +1108,10 @@
         <v>2.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -1120,10 +1120,10 @@
         <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1246,7 +1246,7 @@
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T6" t="n">
         <v>2.16</v>
@@ -1261,7 +1261,7 @@
         <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1345,13 +1345,13 @@
         <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1363,88 +1363,88 @@
         <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
         <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>75</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>2.8</v>
@@ -1519,70 +1519,70 @@
         <v>8.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>6.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z8" t="n">
         <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
         <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AL8" t="n">
         <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
@@ -1651,7 +1651,7 @@
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T9" t="n">
         <v>2.12</v>
@@ -1711,7 +1711,7 @@
         <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
         <v>2.14</v>
@@ -1756,7 +1756,7 @@
         <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1771,10 +1771,10 @@
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
         <v>1.56</v>
@@ -1786,13 +1786,13 @@
         <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
         <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
         <v>1.25</v>
@@ -1831,13 +1831,13 @@
         <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -1897,22 +1897,22 @@
         <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O11" t="n">
         <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
         <v>2.8</v>
@@ -1921,46 +1921,46 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
         <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
         <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1969,25 +1969,25 @@
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
@@ -676,55 +676,55 @@
         <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P2" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
         <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>17.5</v>
@@ -742,7 +742,7 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
         <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -892,10 +892,10 @@
         <v>250</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
         <v>160</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
         <v>2.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
         <v>6.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="U4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="n">
         <v>32</v>
       </c>
-      <c r="AF4" t="n">
-        <v>46</v>
-      </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
         <v>200</v>
       </c>
       <c r="AM4" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G5" t="n">
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="J5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.58</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.46</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
         <v>4.8</v>
@@ -1117,10 +1117,10 @@
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
         <v>1.32</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
         <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
         <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
         <v>1.6</v>
@@ -1240,25 +1240,25 @@
         <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
         <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,43 +1411,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF7" t="n">
         <v>15.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1495,22 +1495,22 @@
         <v>2.84</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="M8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="R8" t="n">
         <v>1.11</v>
@@ -1519,70 +1519,70 @@
         <v>8.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>17.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
         <v>70</v>
       </c>
-      <c r="AK8" t="n">
-        <v>990</v>
-      </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1612,94 +1612,94 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
         <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P9" t="n">
         <v>1.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
         <v>7.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1708,7 +1708,7 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>420</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
         <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
@@ -1789,22 +1789,22 @@
         <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1813,13 +1813,13 @@
         <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,28 +1828,28 @@
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN10" t="n">
         <v>38</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P11" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
@@ -1948,46 +1948,46 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
         <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
         <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
         <v>130</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="O3" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="P3" t="n">
         <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
         <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
         <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,19 +874,19 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
         <v>250</v>
@@ -895,7 +895,7 @@
         <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>160</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
         <v>2.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -979,70 +979,70 @@
         <v>6.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
         <v>2.56</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O5" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1135,22 +1135,22 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1159,16 +1159,16 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,82 +1207,82 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1294,16 +1294,16 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.25</v>
@@ -1366,88 +1366,88 @@
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
         <v>3.25</v>
@@ -1486,28 +1486,28 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
         <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="M8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="N8" t="n">
         <v>2.12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q8" t="n">
         <v>3.7</v>
@@ -1516,31 +1516,31 @@
         <v>1.11</v>
       </c>
       <c r="S8" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
         <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
@@ -1564,19 +1564,19 @@
         <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
         <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN8" t="n">
         <v>110</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
         <v>1.61</v>
@@ -1636,88 +1636,88 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>8.6</v>
       </c>
       <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.58</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O10" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL10" t="n">
         <v>140</v>
       </c>
-      <c r="AB10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.64</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.59</v>
-      </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
         <v>8.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
         <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
         <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AN11" t="n">
         <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,102 +653,102 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Vrsac</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macva Sabac</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,30 +788,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FK Kabel</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>2.26</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -820,91 +820,91 @@
         <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
         <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
         <v>85</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AF3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1000</v>
       </c>
-      <c r="AB3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL3" t="n">
         <v>250</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>160</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
-        <v>2.24</v>
+        <v>2.94</v>
       </c>
       <c r="I4" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="P4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.43</v>
       </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.74</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ4" t="n">
         <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM4" t="n">
         <v>1000</v>
       </c>
-      <c r="AM4" t="n">
-        <v>290</v>
-      </c>
       <c r="AN4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>2.46</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.56</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
         <v>15</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="n">
         <v>65</v>
       </c>
-      <c r="AG5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>200</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.96</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="P6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.52</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.68</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>70</v>
       </c>
-      <c r="AB7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN7" t="n">
         <v>36</v>
       </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>29</v>
-      </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO8" t="n">
         <v>130</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1598,395 +1598,125 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.15</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
         <v>7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>40</v>
       </c>
-      <c r="AI9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO11" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,87 +653,87 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
         <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="O2" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
@@ -742,37 +742,37 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -793,112 +793,112 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
         <v>85</v>
       </c>
       <c r="AF3" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
         <v>38</v>
       </c>
-      <c r="AH3" t="n">
-        <v>70</v>
-      </c>
       <c r="AI3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="n">
         <v>70</v>
       </c>
-      <c r="AA4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>250</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3.65</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
         <v>1.11</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="O6" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.77</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
         <v>34</v>
       </c>
-      <c r="AI6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>70</v>
       </c>
-      <c r="AK6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>290</v>
-      </c>
       <c r="AM6" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
         <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1463,261 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
         <v>80</v>
       </c>
-      <c r="AA8" t="n">
-        <v>130</v>
-      </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>110</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
